--- a/week6_classexs/ab_testing_significance_calculator.xlsx
+++ b/week6_classexs/ab_testing_significance_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siandavies/Documents/GitHub/BCNDATA1021/ClassMaterials/Week6/AB_Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerserret/Documents/GitHub/IronRoger/week6_classexs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31545E6D-D729-CF45-8BE2-93D186A1BB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A52C7-CF60-4949-883E-BB8B324CA4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -116,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1023,50 +1021,50 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>2000</v>
+        <v>39910</v>
       </c>
       <c r="D8" s="8">
-        <v>134</v>
+        <v>16046</v>
       </c>
       <c r="F8" s="17">
         <f>control_conversions/control_visitors</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.40205462290152844</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="18">
         <f>SQRT((control_p*(1-control_p)/control_visitors))</f>
-        <v>5.5906618570612911E-3</v>
+        <v>2.4543269850944719E-3</v>
       </c>
       <c r="J8" s="12"/>
       <c r="L8" s="10"/>
       <c r="M8" s="18">
         <f>IF(control_p-1.65*control_se&lt;0,0,control_p-1.65*control_se)</f>
-        <v>5.7775407935848871E-2</v>
+        <v>0.39800498337612256</v>
       </c>
       <c r="N8" s="18">
         <f>IF(control_p+1.65*control_se&gt;1,1,control_p+1.65*control_se)</f>
-        <v>7.6224592064151137E-2</v>
+        <v>0.40610426242693431</v>
       </c>
       <c r="O8" s="12"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="18">
         <f>IF(control_p-1.96*control_se&lt;0,0,control_p-1.96*control_se)</f>
-        <v>5.6042302760159875E-2</v>
+        <v>0.39724414201074326</v>
       </c>
       <c r="S8" s="18">
         <f>IF(control_p+1.96*control_se&gt;1,1,control_p+1.96*control_se)</f>
-        <v>7.795769723984014E-2</v>
+        <v>0.40686510379231361</v>
       </c>
       <c r="T8" s="12"/>
       <c r="V8" s="10"/>
       <c r="W8" s="18">
         <f>IF(control_p-2.57*control_se&lt;0,0,control_p-2.57*control_se)</f>
-        <v>5.2631999027352487E-2</v>
+        <v>0.39574700254983564</v>
       </c>
       <c r="X8" s="18">
         <f>IF(control_p+2.57*control_se&gt;1,1,control_p+2.57*control_se)</f>
-        <v>8.1368000972647514E-2</v>
+        <v>0.40836224325322124</v>
       </c>
       <c r="Y8" s="12"/>
     </row>
@@ -1075,50 +1073,50 @@
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>3000</v>
+        <v>33157</v>
       </c>
       <c r="D9" s="8">
-        <v>165</v>
+        <v>21731</v>
       </c>
       <c r="F9" s="19">
         <f>variation_conversions/variation_visitors</f>
-        <v>5.5E-2</v>
+        <v>0.65539705039659801</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="20">
         <f>SQRT((variation_p*(1-variation_p)/variation_visitors))</f>
-        <v>4.1623310776534826E-3</v>
+        <v>2.609901529126608E-3</v>
       </c>
       <c r="J9" s="14"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20">
         <f>IF(variation_p-1.65*variation_se&lt;0,0,variation_p-1.65*variation_se)</f>
-        <v>4.8132153721871754E-2</v>
+        <v>0.65109071287353915</v>
       </c>
       <c r="N9" s="20">
         <f>IF(variation_p+1.65*variation_se&gt;1,1,variation_p+1.65*variation_se)</f>
-        <v>6.1867846278128247E-2</v>
+        <v>0.65970338791965688</v>
       </c>
       <c r="O9" s="14"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="20">
         <f>IF(variation_p-1.96*variation_se&lt;0,0,variation_p-1.96*variation_se)</f>
-        <v>4.6841831087799171E-2</v>
+        <v>0.65028164339950989</v>
       </c>
       <c r="S9" s="20">
         <f>IF(variation_p+1.96*variation_se&gt;1,1,variation_p+1.96*variation_se)</f>
-        <v>6.3158168912200829E-2</v>
+        <v>0.66051245739368614</v>
       </c>
       <c r="T9" s="14"/>
       <c r="V9" s="22"/>
       <c r="W9" s="20">
         <f>IF(variation_p-2.57*variation_se&lt;0,0,variation_p-2.57*variation_se)</f>
-        <v>4.4302809130430554E-2</v>
+        <v>0.64868960346674265</v>
       </c>
       <c r="X9" s="20">
         <f>IF(variation_p+2.57*variation_se&gt;1,1,variation_p+2.57*variation_se)</f>
-        <v>6.5697190869569447E-2</v>
+        <v>0.66210449732645338</v>
       </c>
       <c r="Y9" s="14"/>
     </row>
@@ -1156,7 +1154,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="2" t="str">
         <f>IF(OR(p_value&lt;0.01,p_value&gt;0.99), "YES", "NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -1170,7 +1168,7 @@
       </c>
       <c r="C18" s="11">
         <f>(control_p-variation_p)/SQRT(POWER(control_se,2)+POWER(variation_se,2))</f>
-        <v>1.7216713633337686</v>
+        <v>-70.713901329160251</v>
       </c>
       <c r="D18" s="12"/>
     </row>
@@ -1185,27 +1183,27 @@
       </c>
       <c r="C20" s="26">
         <f>NORMDIST(z_score,0,1,TRUE)</f>
-        <v>0.95743546616712194</v>
+        <v>0</v>
       </c>
       <c r="D20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="Q6:T6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2" display="https://vwo.com/"/>
-    <hyperlink ref="N3" r:id="rId3" display="https://vwo.com/"/>
-    <hyperlink ref="O3" r:id="rId4" display="https://vwo.com/"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" display="https://vwo.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N3" r:id="rId3" display="https://vwo.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O3" r:id="rId4" display="https://vwo.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
